--- a/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope/Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope/Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Drinker Cope est un naturaliste américain, un biologiste et un paléontologue. Spécialiste des vertébrés, adversaire acharné d'Othniel Charles Marsh, il a découvert un grand nombre de nouveaux genres et d'espèces actuels et fossiles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Amphibiens
-Anoures
-Adenomus - 1861
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adenomus - 1861
 Agalychnis - 1864
 Agalychnis callidryas, la Rainette aux yeux rouges (1862)
 Anaxyrus hemiophrys, le Crapaud canadien - 1886
@@ -588,26 +608,139 @@
 Smilisca puma (1885)
 Sphaenorhynchus carneus (1868)
 Triprion - 1866 - syn. : Pharyngodon Cope, 1865
-Triprion petasatus (1865, anc. Pharyngodon petasatus)
-Urodèles
-Ambystoma annulatum - 1886
+Triprion petasatus (1865, anc. Pharyngodon petasatus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Urodèles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambystoma annulatum - 1886
 Ambystoma cingulatum - 1868
 Aneides aeneus - 1881
 Aneides ferreus, Salamandre pommelée - (1869)
 Batrachoseps nigriventris - 1869
 Batrachoseps pacificus - (1865)
-Desmognathus ochrophaeus - 1859
-Reptiles
-Amphisbaenia (Amphisbènes)
-Amphisbaena angustifrons - 1861
+Desmognathus ochrophaeus - 1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Amphisbaenia (Amphisbènes)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amphisbaena angustifrons - 1861
 Amphisbaena camura - 1862
 Amphisbaena fenestrata (1861)
 Amphisbaena occidentalis - 1876
 Amphisbaena prunicolor - 1885
 Bipes biporus (1894)
-Zygaspis - 1885
-Autarchoglossa (Lézards)
-Abronia aurita - 1869
+Zygaspis - 1885</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autarchoglossa (Lézards)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abronia aurita - 1869
 Abronia fimbriata - 1884
 Abronia graminea (1864)
 Ameiva bifrontata  - 1862
@@ -648,9 +781,47 @@
 Scincella gemmingeri - 1864
 Tretioscincus - 1862
 Xantusia riversiana - 1883
-Xenosauridae - 1866
-Gekkota (Geckos)
-Anelytropsis - 1885
+Xenosauridae - 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Gekkota (Geckos)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anelytropsis - 1885
 Anelytropsis papillosus - 1885
 Aristelliger - 1862
 Aristelliger lar - 1861
@@ -664,9 +835,47 @@
 Sphaerodactylus gilvitorques - 1862
 Sphaerodactylus glaucus - 1866
 Sphaerodactylus goniorhynchus - 1895
-Sphaerodactylus homolepis - 1886
-Iguania (Iguanes, Caméléons, Agames, Dragons &amp; apparentés)
-Basiliscus plumifrons - 1876
+Sphaerodactylus homolepis - 1886</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Iguania (Iguanes, Caméléons, Agames, Dragons &amp; apparentés)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Basiliscus plumifrons - 1876
 Ctenosaura defensor - 1866
 Ctenosaura hemilopha - 1863
 Laemanctus serratus - 1864
@@ -684,44 +893,90 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauropsides
-Anapsides
-Captorhinus, 1895
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sauropsides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Anapsides</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Captorhinus, 1895
 Testudines
 Glyptops plicatulus, 1877 (type)
 Hadrianus, 1872
 Osteopygis emarginatus, 1869
 Pneumatoarthrus peloreus, 1870
 Protostega, 1872
-Protostega gigas, 1872
-Diapsides
-Archosaures
+Protostega gigas, 1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sauropsides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Diapsides</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Archosaures
 Aetosaures
 Typothorax, 1875
 Crocodiliens, Rauisuchiens et apparentés
@@ -778,10 +1033,47 @@
 Platecarpus planifrons, 1874 (Originellement Clidastes planifrons)
 Tylosaurus proriger, 1869 (type) (Originellement Macrosaurus proriger)
 autres Squamates (hors Mosasaures)
-Peltosaurus, 1873
-Synapsides
-Pelycosaures
-Clepsydrops, 1875
+Peltosaurus, 1873</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synapsides</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pelycosaures</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Clepsydrops, 1875
 Dimetrodon , 1878
 Dimetrodon limbatus, 1877
 Dimetrodon natalis, 1877
@@ -789,9 +1081,47 @@
 Dimetrodon dollovianus, 1888
 Edaphosaurus, 1882
 Edaphosaurus cruciger, 1878
-Edaphosaurus pogonias, 1882 (type)
-Mammifères
-Arctodus simus, l'Ours à face courte, 1897
+Edaphosaurus pogonias, 1882 (type)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Edward_Drinker_Cope</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Synapsides</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctodus simus, l'Ours à face courte, 1897
  Portail des dinosaures   Portail de l’histoire de la zoologie et de la botanique                    </t>
         </is>
       </c>
